--- a/documentacion/315010372_DiagramaGantt_GPO12.xlsx
+++ b/documentacion/315010372_DiagramaGantt_GPO12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axel_\Desktop\SEMESTRE22-2\CGIHC\Repositorio\315010372_ProyectoFinal_GPO12\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C3987-E84E-4087-AEB6-2EE417A225F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF35E048-F3F8-42EE-8D92-8D07421AC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEB8DE16-7E22-47BF-899E-158CBF8D1F0B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Actividades</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>manual usuario</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>315010372_DiagramaGantt_GPO12</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -225,6 +231,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -233,21 +276,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Énfasis1" xfId="2" builtinId="32"/>
@@ -566,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713069AD-54BD-4F29-8EA1-34BEE9C597CF}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,49 +630,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -659,7 +713,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -674,7 +728,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -689,7 +743,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
@@ -706,7 +760,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
@@ -723,10 +777,10 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -740,11 +794,11 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -757,12 +811,12 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -774,13 +828,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -791,14 +845,14 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -808,7 +862,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1"/>
@@ -816,7 +870,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -825,7 +879,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1"/>
@@ -834,7 +888,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -842,7 +896,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1"/>
@@ -852,14 +906,14 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1"/>
@@ -870,13 +924,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1"/>
@@ -893,7 +947,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
@@ -910,13 +964,13 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -927,14 +981,14 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -944,14 +998,14 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -961,7 +1015,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1"/>
@@ -969,8 +1023,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -978,7 +1032,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
@@ -988,15 +1042,15 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
+      <c r="A24" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1006,14 +1060,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
+      <c r="A25" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1023,14 +1077,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
+      <c r="A26" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1040,14 +1094,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>24</v>
+      <c r="A27" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1057,14 +1111,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
+      <c r="A28" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1074,14 +1128,14 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
+      <c r="A29" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1091,14 +1145,14 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>25</v>
+      <c r="A30" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1108,14 +1162,14 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
+      <c r="A31" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1125,14 +1179,14 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>28</v>
+      <c r="A32" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1142,14 +1196,14 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
+      <c r="A33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1159,14 +1213,14 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>30</v>
+      <c r="A34" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1176,13 +1230,31 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:A5"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
@@ -1191,6 +1263,6 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>